--- a/data/chinh_sach_hoc_bong.xlsx
+++ b/data/chinh_sach_hoc_bong.xlsx
@@ -1,12 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Trang tính1" sheetId="1" r:id="rId4"/>
+    <sheet name="Trang tính1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -160,30 +176,382 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="14">
-    <border/>
+  <borders count="22">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF284E3F"/>
@@ -197,6 +565,7 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -211,6 +580,7 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -225,6 +595,7 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -239,6 +610,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -253,6 +625,7 @@
       <bottom style="thin">
         <color rgb="FFF6F8F9"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -267,6 +640,7 @@
       <bottom style="thin">
         <color rgb="FFF6F8F9"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -281,6 +655,7 @@
       <bottom style="thin">
         <color rgb="FFF6F8F9"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -295,6 +670,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -309,6 +685,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -323,6 +700,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -337,6 +715,7 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -351,6 +730,7 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -365,139 +745,491 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="9">
     <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border/>
+      <font>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+      </font>
     </dxf>
     <dxf>
-      <font/>
+      <font>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6F8F9"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF356854"/>
           <bgColor rgb="FF356854"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF6F8F9"/>
-          <bgColor rgb="FFF6F8F9"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Trang tính1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Trang tính1-style" pivot="0" count="3" xr9:uid="{8051C922-8883-4475-9437-B5EB0CD2FF7E}">
+      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F15" displayName="Bảng_1" name="Bảng_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Bảng_1" displayName="Bảng_1" ref="A1:F15">
   <tableColumns count="6">
-    <tableColumn name="STT" id="1"/>
-    <tableColumn name="Loại học bổng" id="2"/>
-    <tableColumn name="Tiêu chí xét tuyển" id="3"/>
-    <tableColumn name="Giá trị học bổng" id="4"/>
-    <tableColumn name="Số lượng" id="5"/>
-    <tableColumn name="Điều kiện và quy định" id="6"/>
+    <tableColumn id="1" name="STT" dataDxfId="0"/>
+    <tableColumn id="2" name="Loại học bổng" dataDxfId="1"/>
+    <tableColumn id="3" name="Tiêu chí xét tuyển" dataDxfId="2"/>
+    <tableColumn id="4" name="Giá trị học bổng" dataDxfId="3"/>
+    <tableColumn id="5" name="Số lượng" dataDxfId="4"/>
+    <tableColumn id="6" name="Điều kiện và quy định" dataDxfId="5"/>
   </tableColumns>
-  <tableStyleInfo name="Trang tính1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Trang tính1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -687,30 +1419,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.0"/>
-    <col customWidth="1" min="2" max="2" width="22.63"/>
-    <col customWidth="1" min="3" max="3" width="43.88"/>
-    <col customWidth="1" min="4" max="5" width="22.63"/>
-    <col customWidth="1" min="6" max="6" width="48.75"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="22.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="43.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="22.6296296296296" customWidth="1"/>
+    <col min="5" max="5" width="203.222222222222" customWidth="1"/>
+    <col min="6" max="6" width="48.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,9 +1466,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -740,44 +1476,44 @@
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -786,55 +1522,55 @@
       <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="6">
-        <v>5.0</v>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="5">
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="5" t="s">
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -843,117 +1579,118 @@
       <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="5" t="s">
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="5" t="s">
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="6">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="5" t="s">
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
     </row>
-    <row r="12">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
     </row>
-    <row r="13">
-      <c r="A13" s="14"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
+    <row r="13" customHeight="1" spans="1:6">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
     </row>
-    <row r="14">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
+    <row r="14" customHeight="1" spans="1:6">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
     </row>
-    <row r="15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
+    <row r="15" customHeight="1" spans="1:6">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>